--- a/Assets/bin/graphics/table/RenderPassTable.xlsx
+++ b/Assets/bin/graphics/table/RenderPassTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IK-LPC-020\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683804D8-20E3-4BCA-BB18-42C2F01AAEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264C36C1-0D56-41BC-B238-44C59B83CEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,31 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+  <si>
+    <t>UUID : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../RenderPassTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PipelineState : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PipelineLayout : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -97,10 +122,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11310337-98C0-4AA6-9406-BB292B25F489}" name="표1" displayName="표1" ref="A2:C11" totalsRowShown="0">
+  <autoFilter ref="A2:C11" xr:uid="{11310337-98C0-4AA6-9406-BB292B25F489}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5168CFCB-BC57-4DBF-946F-660208F7BFAB}" name="UUID : String"/>
+    <tableColumn id="2" xr3:uid="{EF8211DE-0F0C-4EFB-9D1B-642B4EA48441}" name="PipelineState : String"/>
+    <tableColumn id="3" xr3:uid="{2D102F82-A05E-431B-99E3-0CF7491096EE}" name="PipelineLayout : String"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,13 +431,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>